--- a/doc/WBS.xlsx
+++ b/doc/WBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dream\Documents\dream\99.기타자료\개인프로젝트\01.DFG\02.설계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\study\dg\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48665F88-B207-492E-BE27-0E394B21A97C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8215D9-A57A-4115-A9D0-A849C881043B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{F05DC46A-0222-4C60-94DF-C1A3BD074AD6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F05DC46A-0222-4C60-94DF-C1A3BD074AD6}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="179">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -744,6 +744,10 @@
   </si>
   <si>
     <t>예상 소요시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1006,9 +1010,75 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1041,72 +1111,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1424,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59991C8C-9886-4D16-A435-DBC2AA81BC1A}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1440,910 +1444,910 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="34" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="30">
+        <v>44164</v>
+      </c>
+      <c r="J2" s="30">
+        <v>44164</v>
+      </c>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45" t="s">
+      <c r="D6" s="28"/>
+      <c r="E6" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45" t="s">
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="28">
         <v>1</v>
       </c>
-      <c r="I7" s="47">
-        <v>44161</v>
-      </c>
-      <c r="J7" s="47">
-        <v>44161</v>
-      </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45" t="s">
+      <c r="I7" s="30">
+        <v>44164</v>
+      </c>
+      <c r="J7" s="30">
+        <v>44164</v>
+      </c>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45" t="s">
+      <c r="F8" s="31"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45" t="s">
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="28">
         <v>1</v>
       </c>
-      <c r="I10" s="47">
-        <v>44161</v>
-      </c>
-      <c r="J10" s="47">
-        <v>44161</v>
-      </c>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45" t="s">
+      <c r="I10" s="30">
+        <v>44164</v>
+      </c>
+      <c r="J10" s="30">
+        <v>44164</v>
+      </c>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
     </row>
     <row r="13" spans="1:12" ht="27" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45" t="s">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="28">
         <v>2</v>
       </c>
-      <c r="I13" s="47">
-        <v>44162</v>
-      </c>
-      <c r="J13" s="47">
-        <v>44162</v>
-      </c>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45" t="s">
+      <c r="I13" s="30">
+        <v>44164</v>
+      </c>
+      <c r="J13" s="30">
+        <v>44164</v>
+      </c>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="G14" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="28">
         <v>1</v>
       </c>
-      <c r="I14" s="47">
+      <c r="I14" s="30">
         <v>44164</v>
       </c>
-      <c r="J14" s="47">
+      <c r="J14" s="30">
         <v>44164</v>
       </c>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45" t="s">
+      <c r="K14" s="28"/>
+      <c r="L14" s="28" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45" t="s">
+      <c r="B15" s="28"/>
+      <c r="C15" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45" t="s">
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45" t="s">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45" t="s">
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45" t="s">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="45" t="s">
+      <c r="F18" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="G18" s="45" t="s">
+      <c r="G18" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="28">
         <v>1</v>
       </c>
-      <c r="I18" s="47">
+      <c r="I18" s="30">
         <v>44164</v>
       </c>
-      <c r="J18" s="47">
+      <c r="J18" s="30">
         <v>44164</v>
       </c>
-      <c r="K18" s="47"/>
-      <c r="L18" s="45" t="s">
+      <c r="K18" s="30"/>
+      <c r="L18" s="28" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="G19" s="45" t="s">
+      <c r="G19" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="28">
         <v>1</v>
       </c>
-      <c r="I19" s="47">
+      <c r="I19" s="30">
         <v>44164</v>
       </c>
-      <c r="J19" s="47">
+      <c r="J19" s="30">
         <v>44164</v>
       </c>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45" t="s">
+      <c r="K19" s="28"/>
+      <c r="L19" s="28" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="45" t="s">
+      <c r="F20" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="G20" s="45" t="s">
+      <c r="G20" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="28">
         <v>1</v>
       </c>
-      <c r="I20" s="47">
-        <v>44161</v>
-      </c>
-      <c r="J20" s="47">
-        <v>44161</v>
-      </c>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45" t="s">
+      <c r="I20" s="30">
+        <v>44164</v>
+      </c>
+      <c r="J20" s="30">
+        <v>44164</v>
+      </c>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45">
+      <c r="G21" s="28"/>
+      <c r="H21" s="28">
         <v>8</v>
       </c>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="49" t="s">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="45" t="s">
+      <c r="E22" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="F22" s="45" t="s">
+      <c r="F22" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45">
+      <c r="G22" s="28"/>
+      <c r="H22" s="28">
         <v>3</v>
       </c>
-      <c r="I22" s="47">
-        <v>44161</v>
-      </c>
-      <c r="J22" s="47">
-        <v>44161</v>
-      </c>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="49" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="E23" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="F23" s="45" t="s">
+      <c r="F23" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45">
+      <c r="G23" s="28"/>
+      <c r="H23" s="28">
         <v>1</v>
       </c>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="49" t="s">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="45" t="s">
+      <c r="E24" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="F24" s="45" t="s">
+      <c r="F24" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45">
+      <c r="G24" s="28"/>
+      <c r="H24" s="28">
         <v>8</v>
       </c>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="45" t="s">
+      <c r="F25" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="G25" s="45" t="s">
+      <c r="G25" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="H25" s="45">
+      <c r="H25" s="28">
         <v>1</v>
       </c>
-      <c r="I25" s="47">
-        <v>44162</v>
-      </c>
-      <c r="J25" s="47">
-        <v>44162</v>
-      </c>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45" t="s">
+      <c r="I25" s="30">
+        <v>44164</v>
+      </c>
+      <c r="J25" s="30">
+        <v>44164</v>
+      </c>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45" t="s">
+      <c r="B26" s="28"/>
+      <c r="C26" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="45" t="s">
+      <c r="D26" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="45" t="s">
+      <c r="E26" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="45" t="s">
+      <c r="F26" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="G26" s="45" t="s">
+      <c r="G26" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="H26" s="45">
+      <c r="H26" s="28">
         <v>1</v>
       </c>
-      <c r="I26" s="47">
-        <v>44162</v>
-      </c>
-      <c r="J26" s="47">
-        <v>44162</v>
-      </c>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45" t="s">
+      <c r="I26" s="30">
+        <v>44164</v>
+      </c>
+      <c r="J26" s="30">
+        <v>44164</v>
+      </c>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="45" t="s">
+      <c r="D27" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="45" t="s">
+      <c r="E27" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="G27" s="45" t="s">
+      <c r="G27" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="45">
+      <c r="H27" s="28">
         <v>1</v>
       </c>
-      <c r="I27" s="47">
+      <c r="I27" s="30">
         <v>44164</v>
       </c>
-      <c r="J27" s="47">
+      <c r="J27" s="30">
         <v>44164</v>
       </c>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45" t="s">
+      <c r="K27" s="28"/>
+      <c r="L27" s="28" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="E28" s="45" t="s">
+      <c r="E28" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="45" t="s">
+      <c r="F28" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="G28" s="45" t="s">
+      <c r="G28" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="45">
+      <c r="H28" s="28">
         <v>1</v>
       </c>
-      <c r="I28" s="47">
+      <c r="I28" s="30">
         <v>44164</v>
       </c>
-      <c r="J28" s="47">
+      <c r="J28" s="30">
         <v>44164</v>
       </c>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45" t="s">
+      <c r="K28" s="28"/>
+      <c r="L28" s="28" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="45" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="E29" s="45" t="s">
+      <c r="E29" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="F29" s="45" t="s">
+      <c r="F29" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="45" t="s">
+      <c r="D30" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="E30" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="45" t="s">
+      <c r="F30" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="G30" s="45" t="s">
+      <c r="G30" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="H30" s="45">
+      <c r="H30" s="28">
         <v>1</v>
       </c>
-      <c r="I30" s="47">
+      <c r="I30" s="30">
         <v>44164</v>
       </c>
-      <c r="J30" s="47">
+      <c r="J30" s="30">
         <v>44164</v>
       </c>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45" t="s">
+      <c r="K30" s="28"/>
+      <c r="L30" s="28" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L31" xr:uid="{3F2BFE96-E619-486E-864E-4FB78415D028}"/>
@@ -2378,60 +2382,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="24" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-      <c r="B3" s="36" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -2445,12 +2449,12 @@
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="21" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="10" t="s">
         <v>40</v>
       </c>
@@ -2472,8 +2476,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="36" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -2494,10 +2498,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -2520,7 +2524,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="10" t="s">
         <v>31</v>
       </c>
@@ -2540,10 +2544,10 @@
       <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="23" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -2566,7 +2570,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="35" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -2588,8 +2592,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
-      <c r="B10" s="36" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="23" t="s">
         <v>70</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -2610,10 +2614,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="23" t="s">
         <v>109</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -2626,14 +2630,14 @@
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34" t="s">
+      <c r="I11" s="21"/>
+      <c r="J11" s="21" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="36" t="s">
+      <c r="A12" s="35"/>
+      <c r="B12" s="23" t="s">
         <v>110</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -2646,14 +2650,14 @@
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34" t="s">
+      <c r="I12" s="21"/>
+      <c r="J12" s="21" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="36" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="23" t="s">
         <v>111</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -2676,7 +2680,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="10" t="s">
         <v>65</v>
       </c>
@@ -2694,10 +2698,10 @@
       <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="23" t="s">
         <v>112</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -2712,10 +2716,10 @@
       <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="23" t="s">
         <v>114</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -2734,8 +2738,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
-      <c r="B17" s="36" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="23" t="s">
         <v>121</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -2752,7 +2756,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -2774,7 +2778,7 @@
       <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="10" t="s">
         <v>12</v>
       </c>
@@ -2792,7 +2796,7 @@
       <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="10" t="s">
         <v>13</v>
       </c>
@@ -2810,7 +2814,7 @@
       <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="10" t="s">
         <v>14</v>
       </c>
@@ -2828,7 +2832,7 @@
       <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="10" t="s">
         <v>15</v>
       </c>
@@ -2846,10 +2850,10 @@
       <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="23" t="s">
         <v>107</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -2868,8 +2872,8 @@
       <c r="J23" s="10"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="36" t="s">
+      <c r="A24" s="35"/>
+      <c r="B24" s="23" t="s">
         <v>122</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -2890,8 +2894,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="36" t="s">
+      <c r="A25" s="35"/>
+      <c r="B25" s="23" t="s">
         <v>89</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -2912,8 +2916,8 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="36" t="s">
+      <c r="A26" s="35"/>
+      <c r="B26" s="23" t="s">
         <v>90</v>
       </c>
       <c r="C26" s="10" t="s">
@@ -2936,7 +2940,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="10" t="s">
         <v>35</v>
       </c>
@@ -2954,7 +2958,7 @@
       <c r="J27" s="10"/>
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="10" t="s">
         <v>34</v>
       </c>
@@ -2972,7 +2976,7 @@
       <c r="J28" s="10"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="10" t="s">
@@ -2998,7 +3002,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="10" t="s">
         <v>108</v>
       </c>
@@ -3014,7 +3018,7 @@
       <c r="J30" s="10"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="10" t="s">
         <v>7</v>
       </c>
@@ -3036,10 +3040,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="10" t="s">
@@ -3062,7 +3066,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="35" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="10" t="s">
@@ -3082,7 +3086,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
+      <c r="A34" s="35"/>
       <c r="B34" s="10" t="s">
         <v>23</v>
       </c>
@@ -3100,91 +3104,91 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="35" t="s">
         <v>24</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="40" t="s">
         <v>84</v>
       </c>
       <c r="E35" s="10"/>
-      <c r="F35" s="18">
+      <c r="F35" s="39">
         <v>3</v>
       </c>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="40"/>
+      <c r="A36" s="35"/>
       <c r="B36" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="40"/>
+      <c r="D36" s="35"/>
       <c r="E36" s="10"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
       <c r="I36" s="10"/>
       <c r="J36" s="10" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="40"/>
+      <c r="A37" s="35"/>
       <c r="B37" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="40"/>
+      <c r="D37" s="35"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
       <c r="I37" s="10"/>
       <c r="J37" s="10" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="40"/>
+      <c r="A38" s="35"/>
       <c r="B38" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="40"/>
+      <c r="D38" s="35"/>
       <c r="E38" s="10"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
       <c r="F39" s="6">
         <f>SUM(F3:F38)</f>
         <v>49.699999999999996</v>
@@ -3211,7 +3215,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>97</v>
       </c>
@@ -3316,11 +3320,6 @@
   </sheetData>
   <autoFilter ref="A1:J39" xr:uid="{881BC806-B33E-4396-9D4C-8B6926040DA3}"/>
   <mergeCells count="15">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="H35:H38"/>
     <mergeCell ref="A39:E39"/>
     <mergeCell ref="F35:F38"/>
     <mergeCell ref="A9:A10"/>
@@ -3329,8 +3328,13 @@
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A38"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:H38"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D35:D38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3508,9 +3512,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A94B27C-10FE-4EFE-B201-EB4684034213}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -3522,7 +3526,7 @@
     <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>83</v>
       </c>
@@ -3530,8 +3534,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -3544,8 +3548,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
       <c r="B3" s="10" t="s">
         <v>40</v>
       </c>
@@ -3556,8 +3560,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
       <c r="B4" s="10" t="s">
         <v>26</v>
       </c>
@@ -3568,8 +3572,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="41" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -3582,8 +3586,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="42"/>
       <c r="B6" s="9" t="s">
         <v>31</v>
       </c>
@@ -3594,7 +3598,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>41</v>
       </c>
@@ -3608,8 +3612,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="47" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -3622,8 +3626,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="48"/>
       <c r="B9" s="10" t="s">
         <v>2</v>
       </c>
@@ -3634,8 +3638,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="49" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -3648,8 +3652,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="50"/>
       <c r="B11" s="10" t="s">
         <v>4</v>
       </c>
@@ -3660,8 +3664,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="50"/>
       <c r="B12" s="10" t="s">
         <v>5</v>
       </c>
@@ -3672,8 +3676,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="51"/>
       <c r="B13" s="9" t="s">
         <v>65</v>
       </c>
@@ -3682,7 +3686,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -3695,9 +3699,12 @@
       <c r="D14" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+      <c r="I14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="41" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -3707,22 +3714,22 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="43"/>
       <c r="B16" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="10" t="s">
         <v>14</v>
       </c>
@@ -3732,7 +3739,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="10" t="s">
         <v>15</v>
       </c>
@@ -3742,7 +3749,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="41" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -3754,7 +3761,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="10" t="s">
         <v>18</v>
       </c>
@@ -3764,21 +3771,21 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="41" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -3792,7 +3799,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="10" t="s">
         <v>7</v>
       </c>
@@ -3818,7 +3825,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="41" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="10" t="s">
@@ -3832,7 +3839,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="10" t="s">
         <v>23</v>
       </c>
@@ -3844,7 +3851,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="41" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="10" t="s">
@@ -3858,7 +3865,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="10" t="s">
         <v>37</v>
       </c>
@@ -3870,7 +3877,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="10" t="s">
         <v>38</v>
       </c>
@@ -3882,7 +3889,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="10" t="s">
         <v>39</v>
       </c>
@@ -3907,5 +3914,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/WBS.xlsx
+++ b/doc/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\study\dg\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8215D9-A57A-4115-A9D0-A849C881043B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631B6568-D609-4637-AD77-2BC3076B51DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F05DC46A-0222-4C60-94DF-C1A3BD074AD6}"/>
   </bookViews>
@@ -1426,10 +1426,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59991C8C-9886-4D16-A435-DBC2AA81BC1A}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1481,7 +1482,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="17.25" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
@@ -1513,7 +1514,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="17.25" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28" t="s">
@@ -1535,7 +1536,7 @@
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="17.25" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28" t="s">
@@ -1557,7 +1558,7 @@
       <c r="K4" s="28"/>
       <c r="L4" s="28"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="17.25" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28" t="s">
@@ -1579,7 +1580,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="17.25" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>137</v>
       </c>
@@ -1603,7 +1604,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28" t="s">
@@ -1633,7 +1634,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28" t="s">
@@ -1655,7 +1656,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28" t="s">
@@ -1713,7 +1714,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
@@ -1733,7 +1734,7 @@
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -1817,7 +1818,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>3</v>
       </c>
@@ -1843,7 +1844,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -1863,7 +1864,7 @@
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
@@ -1976,12 +1977,14 @@
       <c r="J20" s="30">
         <v>44164</v>
       </c>
-      <c r="K20" s="28"/>
+      <c r="K20" s="30">
+        <v>44164</v>
+      </c>
       <c r="L20" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28"/>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
@@ -2003,7 +2006,7 @@
       <c r="K21" s="28"/>
       <c r="L21" s="28"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28"/>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
@@ -2025,7 +2028,7 @@
       <c r="K22" s="28"/>
       <c r="L22" s="28"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
@@ -2047,7 +2050,7 @@
       <c r="K23" s="28"/>
       <c r="L23" s="28"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28"/>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
@@ -2070,7 +2073,6 @@
       <c r="L24" s="28"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
       <c r="D25" s="28" t="s">
@@ -2094,9 +2096,11 @@
       <c r="J25" s="30">
         <v>44164</v>
       </c>
-      <c r="K25" s="28"/>
+      <c r="K25" s="30">
+        <v>44164</v>
+      </c>
       <c r="L25" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -2197,7 +2201,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="28"/>
       <c r="B29" s="28"/>
       <c r="C29" s="29"/>
@@ -2249,7 +2253,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="28" t="s">
         <v>24</v>
       </c>
@@ -2350,7 +2354,13 @@
       <c r="L37" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L31" xr:uid="{3F2BFE96-E619-486E-864E-4FB78415D028}"/>
+  <autoFilter ref="A1:L31" xr:uid="{3F2BFE96-E619-486E-864E-4FB78415D028}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A33">
     <sortCondition ref="A1:A33"/>
   </sortState>

--- a/doc/WBS.xlsx
+++ b/doc/WBS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\study\dg\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\정서연\IdeaProjects\dg\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8215D9-A57A-4115-A9D0-A849C881043B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F05DC46A-0222-4C60-94DF-C1A3BD074AD6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15996"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="3" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$J$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">WBS!$A$1:$L$31</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="181">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -748,17 +747,25 @@
   </si>
   <si>
     <t>`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -874,7 +881,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -949,13 +956,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1061,24 +1081,24 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1111,6 +1131,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1425,25 +1457,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59991C8C-9886-4D16-A435-DBC2AA81BC1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.875" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="35.8984375" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="10" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="18" thickBot="1">
       <c r="A1" s="34" t="s">
         <v>128</v>
       </c>
@@ -1481,8 +1515,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:12" ht="18" hidden="1" thickTop="1">
+      <c r="A2" s="53" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
@@ -1513,8 +1547,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
+    <row r="3" spans="1:12" ht="18" hidden="1" thickTop="1">
+      <c r="A3" s="54"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28" t="s">
         <v>0</v>
@@ -1535,8 +1569,8 @@
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
+    <row r="4" spans="1:12" ht="31.8" hidden="1" thickTop="1">
+      <c r="A4" s="54"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28" t="s">
         <v>147</v>
@@ -1557,8 +1591,8 @@
       <c r="K4" s="28"/>
       <c r="L4" s="28"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
+    <row r="5" spans="1:12" ht="18" hidden="1" thickTop="1">
+      <c r="A5" s="52"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28" t="s">
         <v>132</v>
@@ -1579,8 +1613,8 @@
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:12" ht="18" hidden="1" thickTop="1">
+      <c r="A6" s="55" t="s">
         <v>137</v>
       </c>
       <c r="B6" s="28"/>
@@ -1603,8 +1637,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
+    <row r="7" spans="1:12" ht="18" thickTop="1">
+      <c r="A7" s="54"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28" t="s">
         <v>136</v>
@@ -1628,13 +1662,15 @@
       <c r="J7" s="30">
         <v>44164</v>
       </c>
-      <c r="K7" s="28"/>
+      <c r="K7" s="30">
+        <v>44164</v>
+      </c>
       <c r="L7" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" hidden="1">
+      <c r="A8" s="54"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28" t="s">
         <v>40</v>
@@ -1655,8 +1691,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
+    <row r="9" spans="1:12" hidden="1">
+      <c r="A9" s="52"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28" t="s">
         <v>137</v>
@@ -1679,8 +1715,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:12">
+      <c r="A10" s="55" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="28"/>
@@ -1710,11 +1746,11 @@
       </c>
       <c r="K10" s="28"/>
       <c r="L10" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" hidden="1">
+      <c r="A11" s="54"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28" t="s">
@@ -1733,8 +1769,8 @@
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
+    <row r="12" spans="1:12" hidden="1">
+      <c r="A12" s="52"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28" t="s">
@@ -1753,8 +1789,8 @@
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
     </row>
-    <row r="13" spans="1:12" ht="27" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:12" ht="31.2">
+      <c r="A13" s="55" t="s">
         <v>70</v>
       </c>
       <c r="B13" s="28"/>
@@ -1787,8 +1823,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
+    <row r="14" spans="1:12">
+      <c r="A14" s="52"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28" t="s">
@@ -1817,8 +1853,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:12" hidden="1">
+      <c r="A15" s="55" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="28"/>
@@ -1843,8 +1879,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
+    <row r="16" spans="1:12" hidden="1">
+      <c r="A16" s="54"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28" t="s">
@@ -1863,8 +1899,8 @@
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
+    <row r="17" spans="1:12" hidden="1">
+      <c r="A17" s="54"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28" t="s">
@@ -1885,8 +1921,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
+    <row r="18" spans="1:12">
+      <c r="A18" s="52"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28" t="s">
@@ -1915,8 +1951,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
+    <row r="19" spans="1:12">
+      <c r="A19" s="55" t="s">
         <v>159</v>
       </c>
       <c r="B19" s="28"/>
@@ -1949,8 +1985,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
+    <row r="20" spans="1:12" hidden="1">
+      <c r="A20" s="54"/>
       <c r="B20" s="28"/>
       <c r="C20" s="28" t="s">
         <v>163</v>
@@ -1981,8 +2017,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
+    <row r="21" spans="1:12" hidden="1">
+      <c r="A21" s="54"/>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28" t="s">
@@ -2003,8 +2039,8 @@
       <c r="K21" s="28"/>
       <c r="L21" s="28"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
+    <row r="22" spans="1:12" hidden="1">
+      <c r="A22" s="54"/>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
       <c r="D22" s="32" t="s">
@@ -2025,8 +2061,8 @@
       <c r="K22" s="28"/>
       <c r="L22" s="28"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
+    <row r="23" spans="1:12" hidden="1">
+      <c r="A23" s="54"/>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
       <c r="D23" s="32" t="s">
@@ -2047,8 +2083,8 @@
       <c r="K23" s="28"/>
       <c r="L23" s="28"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
+    <row r="24" spans="1:12" hidden="1">
+      <c r="A24" s="54"/>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
       <c r="D24" s="32" t="s">
@@ -2069,8 +2105,8 @@
       <c r="K24" s="28"/>
       <c r="L24" s="28"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
+    <row r="25" spans="1:12" hidden="1">
+      <c r="A25" s="52"/>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
       <c r="D25" s="28" t="s">
@@ -2099,8 +2135,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
+    <row r="26" spans="1:12" hidden="1">
+      <c r="A26" s="55" t="s">
         <v>169</v>
       </c>
       <c r="B26" s="28"/>
@@ -2133,8 +2169,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
+    <row r="27" spans="1:12" hidden="1">
+      <c r="A27" s="54"/>
       <c r="B27" s="28"/>
       <c r="C27" s="28" t="s">
         <v>122</v>
@@ -2165,8 +2201,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
+    <row r="28" spans="1:12" hidden="1">
+      <c r="A28" s="54"/>
       <c r="B28" s="28"/>
       <c r="C28" s="28" t="s">
         <v>22</v>
@@ -2197,8 +2233,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
+    <row r="29" spans="1:12" hidden="1">
+      <c r="A29" s="54"/>
       <c r="B29" s="28"/>
       <c r="C29" s="29"/>
       <c r="D29" s="28" t="s">
@@ -2217,8 +2253,8 @@
       <c r="K29" s="28"/>
       <c r="L29" s="28"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
+    <row r="30" spans="1:12" hidden="1">
+      <c r="A30" s="52"/>
       <c r="B30" s="28"/>
       <c r="C30" s="28" t="s">
         <v>89</v>
@@ -2249,7 +2285,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" hidden="1">
       <c r="A31" s="28" t="s">
         <v>24</v>
       </c>
@@ -2265,7 +2301,7 @@
       <c r="K31" s="28"/>
       <c r="L31" s="28"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" s="27"/>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
@@ -2279,7 +2315,7 @@
       <c r="K32" s="27"/>
       <c r="L32" s="27"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="A33" s="27"/>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
@@ -2293,7 +2329,7 @@
       <c r="K33" s="27"/>
       <c r="L33" s="27"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34" s="27"/>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
@@ -2307,7 +2343,7 @@
       <c r="K34" s="27"/>
       <c r="L34" s="27"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="A35" s="27"/>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
@@ -2321,7 +2357,7 @@
       <c r="K35" s="27"/>
       <c r="L35" s="27"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12">
       <c r="A36" s="27"/>
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
@@ -2335,7 +2371,7 @@
       <c r="K36" s="27"/>
       <c r="L36" s="27"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12">
       <c r="A37" s="27"/>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
@@ -2350,10 +2386,25 @@
       <c r="L37" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L31" xr:uid="{3F2BFE96-E619-486E-864E-4FB78415D028}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A33">
+  <autoFilter ref="A1:L31">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="서연"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A1:A33">
     <sortCondition ref="A1:A33"/>
   </sortState>
+  <mergeCells count="7">
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A25"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2361,27 +2412,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E616F1-0776-4591-B9A1-409BCF42E535}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B19" sqref="B19:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="23.625" customWidth="1"/>
+    <col min="1" max="1" width="23.59765625" customWidth="1"/>
     <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="34.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="34.799999999999997">
       <c r="A1" s="24" t="s">
         <v>115</v>
       </c>
@@ -2413,8 +2464,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -2433,8 +2484,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
+    <row r="3" spans="1:10">
+      <c r="A3" s="38"/>
       <c r="B3" s="23" t="s">
         <v>25</v>
       </c>
@@ -2453,8 +2504,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
+    <row r="4" spans="1:10" ht="34.799999999999997">
+      <c r="A4" s="38"/>
       <c r="B4" s="10" t="s">
         <v>40</v>
       </c>
@@ -2475,8 +2526,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
+    <row r="5" spans="1:10">
+      <c r="A5" s="38"/>
       <c r="B5" s="23" t="s">
         <v>26</v>
       </c>
@@ -2497,8 +2548,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="23" t="s">
@@ -2523,8 +2574,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
+    <row r="7" spans="1:10">
+      <c r="A7" s="38"/>
       <c r="B7" s="10" t="s">
         <v>31</v>
       </c>
@@ -2543,7 +2594,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="26" t="s">
         <v>41</v>
       </c>
@@ -2569,8 +2620,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
+    <row r="9" spans="1:10" ht="34.799999999999997">
+      <c r="A9" s="38" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -2591,8 +2642,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
+    <row r="10" spans="1:10">
+      <c r="A10" s="38"/>
       <c r="B10" s="23" t="s">
         <v>70</v>
       </c>
@@ -2613,8 +2664,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+    <row r="11" spans="1:10">
+      <c r="A11" s="38" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="23" t="s">
@@ -2635,8 +2686,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
+    <row r="12" spans="1:10">
+      <c r="A12" s="38"/>
       <c r="B12" s="23" t="s">
         <v>110</v>
       </c>
@@ -2655,8 +2706,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
+    <row r="13" spans="1:10">
+      <c r="A13" s="38"/>
       <c r="B13" s="23" t="s">
         <v>111</v>
       </c>
@@ -2679,8 +2730,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
+    <row r="14" spans="1:10">
+      <c r="A14" s="38"/>
       <c r="B14" s="10" t="s">
         <v>65</v>
       </c>
@@ -2697,7 +2748,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15" s="26" t="s">
         <v>112</v>
       </c>
@@ -2715,8 +2766,8 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
+    <row r="16" spans="1:10">
+      <c r="A16" s="38" t="s">
         <v>113</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -2737,8 +2788,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
+    <row r="17" spans="1:10">
+      <c r="A17" s="38"/>
       <c r="B17" s="23" t="s">
         <v>121</v>
       </c>
@@ -2755,8 +2806,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="s">
+    <row r="18" spans="1:10">
+      <c r="A18" s="38" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -2777,8 +2828,8 @@
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
+    <row r="19" spans="1:10">
+      <c r="A19" s="38"/>
       <c r="B19" s="10" t="s">
         <v>12</v>
       </c>
@@ -2795,8 +2846,8 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
+    <row r="20" spans="1:10">
+      <c r="A20" s="38"/>
       <c r="B20" s="10" t="s">
         <v>13</v>
       </c>
@@ -2813,8 +2864,8 @@
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
+    <row r="21" spans="1:10">
+      <c r="A21" s="38"/>
       <c r="B21" s="10" t="s">
         <v>14</v>
       </c>
@@ -2831,8 +2882,8 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
+    <row r="22" spans="1:10">
+      <c r="A22" s="38"/>
       <c r="B22" s="10" t="s">
         <v>15</v>
       </c>
@@ -2849,8 +2900,8 @@
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
+    <row r="23" spans="1:10">
+      <c r="A23" s="38" t="s">
         <v>88</v>
       </c>
       <c r="B23" s="23" t="s">
@@ -2871,8 +2922,8 @@
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
+    <row r="24" spans="1:10">
+      <c r="A24" s="38"/>
       <c r="B24" s="23" t="s">
         <v>122</v>
       </c>
@@ -2893,8 +2944,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
+    <row r="25" spans="1:10">
+      <c r="A25" s="38"/>
       <c r="B25" s="23" t="s">
         <v>89</v>
       </c>
@@ -2915,8 +2966,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
+    <row r="26" spans="1:10">
+      <c r="A26" s="38"/>
       <c r="B26" s="23" t="s">
         <v>90</v>
       </c>
@@ -2939,8 +2990,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="35"/>
+    <row r="27" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A27" s="38"/>
       <c r="B27" s="10" t="s">
         <v>35</v>
       </c>
@@ -2957,8 +3008,8 @@
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
+    <row r="28" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A28" s="38"/>
       <c r="B28" s="10" t="s">
         <v>34</v>
       </c>
@@ -2975,8 +3026,8 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="35" t="s">
+    <row r="29" spans="1:10">
+      <c r="A29" s="38" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="10" t="s">
@@ -3001,8 +3052,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
+    <row r="30" spans="1:10">
+      <c r="A30" s="38"/>
       <c r="B30" s="10" t="s">
         <v>108</v>
       </c>
@@ -3017,8 +3068,8 @@
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
+    <row r="31" spans="1:10">
+      <c r="A31" s="38"/>
       <c r="B31" s="10" t="s">
         <v>7</v>
       </c>
@@ -3039,7 +3090,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="15" customHeight="1">
       <c r="A32" s="26" t="s">
         <v>20</v>
       </c>
@@ -3065,8 +3116,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="35" t="s">
+    <row r="33" spans="1:10">
+      <c r="A33" s="38" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="10" t="s">
@@ -3085,8 +3136,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="35"/>
+    <row r="34" spans="1:10">
+      <c r="A34" s="38"/>
       <c r="B34" s="10" t="s">
         <v>23</v>
       </c>
@@ -3103,8 +3154,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="35" t="s">
+    <row r="35" spans="1:10">
+      <c r="A35" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B35" s="10" t="s">
@@ -3113,82 +3164,82 @@
       <c r="C35" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="40" t="s">
+      <c r="D35" s="39" t="s">
         <v>84</v>
       </c>
       <c r="E35" s="10"/>
-      <c r="F35" s="39">
+      <c r="F35" s="37">
         <v>3</v>
       </c>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="35"/>
+    <row r="36" spans="1:10">
+      <c r="A36" s="38"/>
       <c r="B36" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="35"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="10"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
       <c r="I36" s="10"/>
       <c r="J36" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="35"/>
+    <row r="37" spans="1:10">
+      <c r="A37" s="38"/>
       <c r="B37" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="35"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
       <c r="I37" s="10"/>
       <c r="J37" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="35"/>
+    <row r="38" spans="1:10">
+      <c r="A38" s="38"/>
       <c r="B38" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="35"/>
+      <c r="D38" s="38"/>
       <c r="E38" s="10"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="37" t="s">
+    <row r="39" spans="1:10">
+      <c r="A39" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
       <c r="F39" s="6">
         <f>SUM(F3:F38)</f>
         <v>49.699999999999996</v>
@@ -3200,7 +3251,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10">
       <c r="A41" s="13" t="s">
         <v>86</v>
       </c>
@@ -3215,7 +3266,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="87">
       <c r="A42" s="17" t="s">
         <v>97</v>
       </c>
@@ -3224,19 +3275,19 @@
       </c>
       <c r="C42" s="13"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10">
       <c r="A43" s="13" t="s">
         <v>87</v>
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10">
       <c r="A45" s="16" t="s">
         <v>20</v>
       </c>
@@ -3246,7 +3297,7 @@
       <c r="C45" s="16"/>
       <c r="D45" s="16"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10">
       <c r="A46" s="16"/>
       <c r="B46" s="16" t="s">
         <v>92</v>
@@ -3254,7 +3305,7 @@
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10">
       <c r="A47" s="16"/>
       <c r="B47" s="16" t="s">
         <v>93</v>
@@ -3262,64 +3313,70 @@
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1">
       <c r="A55" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1">
       <c r="A58" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J39" xr:uid="{881BC806-B33E-4396-9D4C-8B6926040DA3}"/>
+  <autoFilter ref="A1:J39"/>
   <mergeCells count="15">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A39:E39"/>
     <mergeCell ref="F35:F38"/>
     <mergeCell ref="A9:A10"/>
@@ -3329,12 +3386,6 @@
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="D35:D38"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3343,23 +3394,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40ECF1E-21EC-4660-A523-5E45F5A3FD06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.625" customWidth="1"/>
-    <col min="7" max="8" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.59765625" customWidth="1"/>
+    <col min="7" max="8" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="34.799999999999997">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -3380,7 +3431,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
@@ -3399,7 +3450,7 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="6" t="s">
         <v>47</v>
       </c>
@@ -3414,7 +3465,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
@@ -3433,7 +3484,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -3454,7 +3505,7 @@
         <v>44082</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="10" t="s">
         <v>46</v>
       </c>
@@ -3467,7 +3518,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
@@ -3482,7 +3533,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -3493,7 +3544,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -3511,22 +3562,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A94B27C-10FE-4EFE-B201-EB4684034213}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>83</v>
       </c>
@@ -3534,7 +3585,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
@@ -3548,7 +3599,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="34.799999999999997">
       <c r="A3" s="45"/>
       <c r="B3" s="10" t="s">
         <v>40</v>
@@ -3560,7 +3611,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="46"/>
       <c r="B4" s="10" t="s">
         <v>26</v>
@@ -3572,7 +3623,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="41" t="s">
         <v>1</v>
       </c>
@@ -3586,7 +3637,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="42"/>
       <c r="B6" s="9" t="s">
         <v>31</v>
@@ -3598,7 +3649,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
         <v>41</v>
       </c>
@@ -3612,7 +3663,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="34.799999999999997">
       <c r="A8" s="47" t="s">
         <v>42</v>
       </c>
@@ -3626,7 +3677,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="48"/>
       <c r="B9" s="10" t="s">
         <v>2</v>
@@ -3638,7 +3689,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="49" t="s">
         <v>3</v>
       </c>
@@ -3652,7 +3703,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="50"/>
       <c r="B11" s="10" t="s">
         <v>4</v>
@@ -3664,7 +3715,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="50"/>
       <c r="B12" s="10" t="s">
         <v>5</v>
@@ -3676,7 +3727,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="51"/>
       <c r="B13" s="9" t="s">
         <v>65</v>
@@ -3686,7 +3737,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -3703,7 +3754,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="41" t="s">
         <v>10</v>
       </c>
@@ -3714,21 +3765,21 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="43"/>
       <c r="B16" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="43"/>
       <c r="B17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="43"/>
       <c r="B18" s="10" t="s">
         <v>14</v>
@@ -3738,7 +3789,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="42"/>
       <c r="B19" s="10" t="s">
         <v>15</v>
@@ -3748,7 +3799,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" s="41" t="s">
         <v>16</v>
       </c>
@@ -3760,7 +3811,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" s="43"/>
       <c r="B21" s="10" t="s">
         <v>18</v>
@@ -3770,21 +3821,21 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" s="43"/>
       <c r="B22" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" s="42"/>
       <c r="B23" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="10"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" s="41" t="s">
         <v>6</v>
       </c>
@@ -3798,7 +3849,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" s="42"/>
       <c r="B25" s="10" t="s">
         <v>7</v>
@@ -3810,7 +3861,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" s="6" t="s">
         <v>20</v>
       </c>
@@ -3824,7 +3875,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" s="41" t="s">
         <v>19</v>
       </c>
@@ -3838,7 +3889,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" s="42"/>
       <c r="B28" s="10" t="s">
         <v>23</v>
@@ -3850,7 +3901,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" s="41" t="s">
         <v>24</v>
       </c>
@@ -3864,7 +3915,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" s="43"/>
       <c r="B30" s="10" t="s">
         <v>37</v>
@@ -3876,7 +3927,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" s="43"/>
       <c r="B31" s="10" t="s">
         <v>38</v>
@@ -3888,7 +3939,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" s="42"/>
       <c r="B32" s="10" t="s">
         <v>39</v>

--- a/doc/WBS.xlsx
+++ b/doc/WBS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\정서연\IdeaProjects\dg\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\study\dg\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2993AC12-FD85-4EA2-A65D-8BFAD8305F37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15996"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="3" r:id="rId1"/>
@@ -19,9 +20,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$J$39</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">WBS!$A$1:$L$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">WBS!$A$1:$L$35</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,6 +33,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="188">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -755,17 +757,45 @@
   </si>
   <si>
     <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제 승인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 등록한 문제 목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 등록한 문제 목록 조회 및 문제 승인/반려 상태 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 등록한 문제를 승인/반려 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답안 좋아요 취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DG-IF-19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1081,6 +1111,24 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1091,13 +1139,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1131,18 +1173,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1457,27 +1487,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:L37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.8984375" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="35.875" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="11" width="12.59765625" customWidth="1"/>
+    <col min="9" max="11" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" thickBot="1">
+    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>128</v>
       </c>
@@ -1515,8 +1544,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" hidden="1" thickTop="1">
-      <c r="A2" s="53" t="s">
+    <row r="2" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
@@ -1547,8 +1576,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18" hidden="1" thickTop="1">
-      <c r="A3" s="54"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="36"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28" t="s">
         <v>0</v>
@@ -1569,8 +1598,8 @@
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
-    <row r="4" spans="1:12" ht="31.8" hidden="1" thickTop="1">
-      <c r="A4" s="54"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="36"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28" t="s">
         <v>147</v>
@@ -1591,8 +1620,8 @@
       <c r="K4" s="28"/>
       <c r="L4" s="28"/>
     </row>
-    <row r="5" spans="1:12" ht="18" hidden="1" thickTop="1">
-      <c r="A5" s="52"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="37"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28" t="s">
         <v>132</v>
@@ -1613,8 +1642,8 @@
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="1:12" ht="18" hidden="1" thickTop="1">
-      <c r="A6" s="55" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="35" t="s">
         <v>137</v>
       </c>
       <c r="B6" s="28"/>
@@ -1637,8 +1666,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18" thickTop="1">
-      <c r="A7" s="54"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="36"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28" t="s">
         <v>136</v>
@@ -1669,8 +1698,8 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1">
-      <c r="A8" s="54"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="36"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28" t="s">
         <v>40</v>
@@ -1691,8 +1720,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1">
-      <c r="A9" s="52"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="37"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28" t="s">
         <v>137</v>
@@ -1715,8 +1744,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="55" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="35" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="28"/>
@@ -1749,8 +1778,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1">
-      <c r="A11" s="54"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="36"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28" t="s">
@@ -1769,8 +1798,8 @@
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
     </row>
-    <row r="12" spans="1:12" hidden="1">
-      <c r="A12" s="52"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="37"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28" t="s">
@@ -1789,8 +1818,8 @@
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
     </row>
-    <row r="13" spans="1:12" ht="31.2">
-      <c r="A13" s="55" t="s">
+    <row r="13" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+      <c r="A13" s="35" t="s">
         <v>70</v>
       </c>
       <c r="B13" s="28"/>
@@ -1823,8 +1852,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="52"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="37"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28" t="s">
@@ -1853,8 +1882,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1">
-      <c r="A15" s="55" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="28"/>
@@ -1879,8 +1908,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1">
-      <c r="A16" s="54"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="36"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28" t="s">
@@ -1899,8 +1928,8 @@
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
     </row>
-    <row r="17" spans="1:12" hidden="1">
-      <c r="A17" s="54"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="36"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28" t="s">
@@ -1921,8 +1950,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="52"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="36"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28" t="s">
@@ -1951,57 +1980,45 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="55" t="s">
-        <v>159</v>
-      </c>
+    <row r="19" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+      <c r="A19" s="37"/>
       <c r="B19" s="28"/>
       <c r="C19" s="28" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="E19" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="28">
-        <v>1</v>
-      </c>
-      <c r="I19" s="30">
-        <v>44164</v>
-      </c>
-      <c r="J19" s="30">
-        <v>44164</v>
-      </c>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" hidden="1">
-      <c r="A20" s="54"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="28"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="35" t="s">
+        <v>159</v>
+      </c>
       <c r="B20" s="28"/>
       <c r="C20" s="28" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="E20" s="28" t="s">
         <v>104</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="H20" s="28">
         <v>1</v>
@@ -2012,61 +2029,75 @@
       <c r="J20" s="30">
         <v>44164</v>
       </c>
-      <c r="K20" s="28"/>
+      <c r="K20" s="30">
+        <v>44164</v>
+      </c>
       <c r="L20" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" hidden="1">
-      <c r="A21" s="54"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="36"/>
       <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
+      <c r="C21" s="28" t="s">
+        <v>163</v>
+      </c>
       <c r="D21" s="28" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="28"/>
+        <v>165</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>85</v>
+      </c>
       <c r="H21" s="28">
-        <v>8</v>
-      </c>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-    </row>
-    <row r="22" spans="1:12" hidden="1">
-      <c r="A22" s="54"/>
+        <v>1</v>
+      </c>
+      <c r="I21" s="30">
+        <v>44164</v>
+      </c>
+      <c r="J21" s="30">
+        <v>44164</v>
+      </c>
+      <c r="K21" s="30">
+        <v>44164</v>
+      </c>
+      <c r="L21" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="36"/>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
-      <c r="D22" s="32" t="s">
-        <v>12</v>
+      <c r="D22" s="28" t="s">
+        <v>164</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="F22" s="28" t="s">
         <v>100</v>
       </c>
       <c r="G22" s="28"/>
       <c r="H22" s="28">
-        <v>3</v>
-      </c>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
+        <v>8</v>
+      </c>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
       <c r="K22" s="28"/>
       <c r="L22" s="28"/>
     </row>
-    <row r="23" spans="1:12" hidden="1">
-      <c r="A23" s="54"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="36"/>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
       <c r="D23" s="32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" s="28" t="s">
         <v>133</v>
@@ -2076,81 +2107,69 @@
       </c>
       <c r="G23" s="28"/>
       <c r="H23" s="28">
-        <v>1</v>
-      </c>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
+        <v>3</v>
+      </c>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
       <c r="K23" s="28"/>
       <c r="L23" s="28"/>
     </row>
-    <row r="24" spans="1:12" hidden="1">
-      <c r="A24" s="54"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="36"/>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
       <c r="D24" s="32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="F24" s="28" t="s">
         <v>100</v>
       </c>
       <c r="G24" s="28"/>
       <c r="H24" s="28">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I24" s="28"/>
       <c r="J24" s="28"/>
       <c r="K24" s="28"/>
       <c r="L24" s="28"/>
     </row>
-    <row r="25" spans="1:12" hidden="1">
-      <c r="A25" s="52"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="36"/>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28">
+        <v>8</v>
+      </c>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="36"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28" t="s">
         <v>168</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="H25" s="28">
-        <v>1</v>
-      </c>
-      <c r="I25" s="30">
-        <v>44164</v>
-      </c>
-      <c r="J25" s="30">
-        <v>44164</v>
-      </c>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" hidden="1">
-      <c r="A26" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>123</v>
       </c>
       <c r="E26" s="28" t="s">
         <v>104</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>85</v>
@@ -2164,57 +2183,49 @@
       <c r="J26" s="30">
         <v>44164</v>
       </c>
-      <c r="K26" s="28"/>
+      <c r="K26" s="30">
+        <v>44164</v>
+      </c>
       <c r="L26" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" hidden="1">
-      <c r="A27" s="54"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="37"/>
       <c r="B27" s="28"/>
       <c r="C27" s="28" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E27" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="H27" s="28">
-        <v>1</v>
-      </c>
-      <c r="I27" s="30">
-        <v>44164</v>
-      </c>
-      <c r="J27" s="30">
-        <v>44164</v>
-      </c>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" hidden="1">
-      <c r="A28" s="54"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="28"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="35" t="s">
+        <v>169</v>
+      </c>
       <c r="B28" s="28"/>
       <c r="C28" s="28" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="E28" s="28" t="s">
         <v>104</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>85</v>
@@ -2233,40 +2244,52 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1">
-      <c r="A29" s="54"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="36"/>
       <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
+      <c r="C29" s="28" t="s">
+        <v>122</v>
+      </c>
       <c r="D29" s="28" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
+        <v>171</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="28">
+        <v>1</v>
+      </c>
+      <c r="I29" s="30">
+        <v>44164</v>
+      </c>
+      <c r="J29" s="30">
+        <v>44164</v>
+      </c>
       <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-    </row>
-    <row r="30" spans="1:12" hidden="1">
-      <c r="A30" s="52"/>
+      <c r="L29" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="36"/>
       <c r="B30" s="28"/>
       <c r="C30" s="28" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E30" s="28" t="s">
         <v>104</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>85</v>
@@ -2285,69 +2308,105 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1">
-      <c r="A31" s="28" t="s">
-        <v>24</v>
-      </c>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="36"/>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
+      <c r="D31" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>187</v>
+      </c>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
       <c r="K31" s="28"/>
       <c r="L31" s="28"/>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="27"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="36"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="37"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" s="28">
+        <v>1</v>
+      </c>
+      <c r="I33" s="30">
+        <v>44164</v>
+      </c>
+      <c r="J33" s="30">
+        <v>44164</v>
+      </c>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="27" t="s">
+        <v>181</v>
+      </c>
       <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
+      <c r="C35" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>185</v>
+      </c>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
@@ -2357,7 +2416,7 @@
       <c r="K35" s="27"/>
       <c r="L35" s="27"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="27"/>
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
@@ -2371,7 +2430,7 @@
       <c r="K36" s="27"/>
       <c r="L36" s="27"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="27"/>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
@@ -2385,25 +2444,61 @@
       <c r="K37" s="27"/>
       <c r="L37" s="27"/>
     </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L31">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="서연"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState ref="A1:A33">
-    <sortCondition ref="A1:A33"/>
+  <autoFilter ref="A1:L35" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A36">
+    <sortCondition ref="A1:A36"/>
   </sortState>
   <mergeCells count="7">
-    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="A15:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2412,27 +2507,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B22"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.59765625" customWidth="1"/>
+    <col min="1" max="1" width="23.625" customWidth="1"/>
     <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="34.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.59765625" customWidth="1"/>
+    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="34.799999999999997">
+    <row r="1" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>115</v>
       </c>
@@ -2464,8 +2559,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -2484,8 +2579,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="38"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="39"/>
       <c r="B3" s="23" t="s">
         <v>25</v>
       </c>
@@ -2504,8 +2599,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="34.799999999999997">
-      <c r="A4" s="38"/>
+    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="39"/>
       <c r="B4" s="10" t="s">
         <v>40</v>
       </c>
@@ -2526,8 +2621,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="38"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="39"/>
       <c r="B5" s="23" t="s">
         <v>26</v>
       </c>
@@ -2548,8 +2643,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="23" t="s">
@@ -2574,8 +2669,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="38"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="39"/>
       <c r="B7" s="10" t="s">
         <v>31</v>
       </c>
@@ -2594,7 +2689,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>41</v>
       </c>
@@ -2620,8 +2715,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="34.799999999999997">
-      <c r="A9" s="38" t="s">
+    <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" s="39" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -2642,8 +2737,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="38"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="39"/>
       <c r="B10" s="23" t="s">
         <v>70</v>
       </c>
@@ -2664,8 +2759,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="38" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="23" t="s">
@@ -2686,8 +2781,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="38"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="39"/>
       <c r="B12" s="23" t="s">
         <v>110</v>
       </c>
@@ -2706,8 +2801,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="38"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="39"/>
       <c r="B13" s="23" t="s">
         <v>111</v>
       </c>
@@ -2730,8 +2825,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="38"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="39"/>
       <c r="B14" s="10" t="s">
         <v>65</v>
       </c>
@@ -2748,7 +2843,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>112</v>
       </c>
@@ -2766,8 +2861,8 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="38" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="39" t="s">
         <v>113</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -2788,8 +2883,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="38"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="39"/>
       <c r="B17" s="23" t="s">
         <v>121</v>
       </c>
@@ -2806,8 +2901,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="38" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="39" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -2828,8 +2923,8 @@
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="38"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="39"/>
       <c r="B19" s="10" t="s">
         <v>12</v>
       </c>
@@ -2846,8 +2941,8 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="38"/>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="39"/>
       <c r="B20" s="10" t="s">
         <v>13</v>
       </c>
@@ -2864,8 +2959,8 @@
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="38"/>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="39"/>
       <c r="B21" s="10" t="s">
         <v>14</v>
       </c>
@@ -2882,8 +2977,8 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="38"/>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="39"/>
       <c r="B22" s="10" t="s">
         <v>15</v>
       </c>
@@ -2900,8 +2995,8 @@
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="38" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="39" t="s">
         <v>88</v>
       </c>
       <c r="B23" s="23" t="s">
@@ -2922,8 +3017,8 @@
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="38"/>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="39"/>
       <c r="B24" s="23" t="s">
         <v>122</v>
       </c>
@@ -2944,8 +3039,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="38"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="39"/>
       <c r="B25" s="23" t="s">
         <v>89</v>
       </c>
@@ -2966,8 +3061,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="38"/>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="39"/>
       <c r="B26" s="23" t="s">
         <v>90</v>
       </c>
@@ -2990,8 +3085,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A27" s="38"/>
+    <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="39"/>
       <c r="B27" s="10" t="s">
         <v>35</v>
       </c>
@@ -3008,8 +3103,8 @@
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A28" s="38"/>
+    <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="39"/>
       <c r="B28" s="10" t="s">
         <v>34</v>
       </c>
@@ -3026,8 +3121,8 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="38" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="10" t="s">
@@ -3052,8 +3147,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="38"/>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="39"/>
       <c r="B30" s="10" t="s">
         <v>108</v>
       </c>
@@ -3068,8 +3163,8 @@
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="38"/>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="39"/>
       <c r="B31" s="10" t="s">
         <v>7</v>
       </c>
@@ -3090,7 +3185,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15" customHeight="1">
+    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="26" t="s">
         <v>20</v>
       </c>
@@ -3116,8 +3211,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="38" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="10" t="s">
@@ -3136,8 +3231,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="38"/>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="39"/>
       <c r="B34" s="10" t="s">
         <v>23</v>
       </c>
@@ -3154,8 +3249,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="38" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B35" s="10" t="s">
@@ -3164,11 +3259,11 @@
       <c r="C35" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="44" t="s">
         <v>84</v>
       </c>
       <c r="E35" s="10"/>
-      <c r="F35" s="37">
+      <c r="F35" s="43">
         <v>3</v>
       </c>
       <c r="G35" s="40"/>
@@ -3178,17 +3273,17 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="38"/>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="39"/>
       <c r="B36" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="38"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="10"/>
-      <c r="F36" s="37"/>
+      <c r="F36" s="43"/>
       <c r="G36" s="40"/>
       <c r="H36" s="40"/>
       <c r="I36" s="10"/>
@@ -3196,17 +3291,17 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="38"/>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="39"/>
       <c r="B37" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="38"/>
+      <c r="D37" s="39"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="37"/>
+      <c r="F37" s="43"/>
       <c r="G37" s="40"/>
       <c r="H37" s="40"/>
       <c r="I37" s="10"/>
@@ -3214,17 +3309,17 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="38"/>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="39"/>
       <c r="B38" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="38"/>
+      <c r="D38" s="39"/>
       <c r="E38" s="10"/>
-      <c r="F38" s="37"/>
+      <c r="F38" s="43"/>
       <c r="G38" s="40"/>
       <c r="H38" s="40"/>
       <c r="I38" s="10"/>
@@ -3232,14 +3327,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="35" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
       <c r="F39" s="6">
         <f>SUM(F3:F38)</f>
         <v>49.699999999999996</v>
@@ -3251,7 +3346,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
         <v>86</v>
       </c>
@@ -3266,7 +3361,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="87">
+    <row r="42" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>97</v>
       </c>
@@ -3275,19 +3370,19 @@
       </c>
       <c r="C42" s="13"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
         <v>87</v>
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
         <v>20</v>
       </c>
@@ -3297,7 +3392,7 @@
       <c r="C45" s="16"/>
       <c r="D45" s="16"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="16"/>
       <c r="B46" s="16" t="s">
         <v>92</v>
@@ -3305,7 +3400,7 @@
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="16"/>
       <c r="B47" s="16" t="s">
         <v>93</v>
@@ -3313,70 +3408,64 @@
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J39"/>
+  <autoFilter ref="A1:J39" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="15">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A39:E39"/>
     <mergeCell ref="F35:F38"/>
     <mergeCell ref="A9:A10"/>
@@ -3386,6 +3475,12 @@
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="D35:D38"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3394,23 +3489,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.59765625" customWidth="1"/>
-    <col min="7" max="8" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
+    <col min="7" max="8" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="34.799999999999997">
+    <row r="1" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -3431,7 +3526,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
@@ -3450,7 +3545,7 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>47</v>
       </c>
@@ -3465,7 +3560,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
@@ -3484,7 +3579,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -3505,7 +3600,7 @@
         <v>44082</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>46</v>
       </c>
@@ -3518,7 +3613,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
@@ -3533,7 +3628,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -3544,7 +3639,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -3562,22 +3657,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>83</v>
       </c>
@@ -3585,8 +3680,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -3599,8 +3694,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="34.799999999999997">
-      <c r="A3" s="45"/>
+    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="49"/>
       <c r="B3" s="10" t="s">
         <v>40</v>
       </c>
@@ -3611,8 +3706,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="50"/>
       <c r="B4" s="10" t="s">
         <v>26</v>
       </c>
@@ -3623,8 +3718,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -3637,8 +3732,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="42"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="46"/>
       <c r="B6" s="9" t="s">
         <v>31</v>
       </c>
@@ -3649,7 +3744,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>41</v>
       </c>
@@ -3663,8 +3758,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="34.799999999999997">
-      <c r="A8" s="47" t="s">
+    <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="51" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -3677,8 +3772,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="48"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="52"/>
       <c r="B9" s="10" t="s">
         <v>2</v>
       </c>
@@ -3689,8 +3784,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="49" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="53" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -3703,8 +3798,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="50"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="54"/>
       <c r="B11" s="10" t="s">
         <v>4</v>
       </c>
@@ -3715,8 +3810,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="50"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="54"/>
       <c r="B12" s="10" t="s">
         <v>5</v>
       </c>
@@ -3727,8 +3822,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="51"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="55"/>
       <c r="B13" s="9" t="s">
         <v>65</v>
       </c>
@@ -3737,7 +3832,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -3754,8 +3849,8 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="41" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="45" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -3765,22 +3860,22 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="43"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="47"/>
       <c r="B16" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="43"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="47"/>
       <c r="B17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="43"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="47"/>
       <c r="B18" s="10" t="s">
         <v>14</v>
       </c>
@@ -3789,8 +3884,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="42"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="46"/>
       <c r="B19" s="10" t="s">
         <v>15</v>
       </c>
@@ -3799,8 +3894,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="41" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="45" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -3811,8 +3906,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="43"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="47"/>
       <c r="B21" s="10" t="s">
         <v>18</v>
       </c>
@@ -3821,22 +3916,22 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="43"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="47"/>
       <c r="B22" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="10"/>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="42"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="46"/>
       <c r="B23" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="10"/>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="41" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="45" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -3849,8 +3944,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="42"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="46"/>
       <c r="B25" s="10" t="s">
         <v>7</v>
       </c>
@@ -3861,7 +3956,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>20</v>
       </c>
@@ -3875,8 +3970,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="41" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="45" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="10" t="s">
@@ -3889,8 +3984,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="42"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="46"/>
       <c r="B28" s="10" t="s">
         <v>23</v>
       </c>
@@ -3901,8 +3996,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="41" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="45" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="10" t="s">
@@ -3915,8 +4010,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="43"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="47"/>
       <c r="B30" s="10" t="s">
         <v>37</v>
       </c>
@@ -3927,8 +4022,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="43"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="47"/>
       <c r="B31" s="10" t="s">
         <v>38</v>
       </c>
@@ -3939,8 +4034,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="42"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="46"/>
       <c r="B32" s="10" t="s">
         <v>39</v>
       </c>
